--- a/import-demo-point-list.xlsx
+++ b/import-demo-point-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boku no\InternshipProject\student-fita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8376F699-164C-47BD-819A-AF59411F8C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D97B65-48F5-496D-9912-AD3817547E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0A5968B0-B636-4779-A398-BA415D297B06}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,10 +470,10 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>6655051</v>
+        <v>654661</v>
       </c>
       <c r="B2" s="3">
-        <v>20242</v>
+        <v>20192</v>
       </c>
       <c r="C2" s="3">
         <v>7.15</v>
@@ -483,11 +483,11 @@
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E6" ca="1" si="0">RANDBETWEEN(25,130)</f>
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F6" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3">
         <v>7.18</v>
@@ -501,7 +501,7 @@
         <v>6652385</v>
       </c>
       <c r="B3" s="3">
-        <v>20242</v>
+        <v>20201</v>
       </c>
       <c r="C3" s="3">
         <v>6</v>
@@ -511,11 +511,11 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="G3" s="3">
         <v>6.07</v>
@@ -529,7 +529,7 @@
         <v>6655419</v>
       </c>
       <c r="B4" s="3">
-        <v>20242</v>
+        <v>20201</v>
       </c>
       <c r="C4" s="3">
         <v>1.95</v>
@@ -539,11 +539,11 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3">
         <v>1.96</v>
@@ -557,7 +557,7 @@
         <v>6667532</v>
       </c>
       <c r="B5" s="3">
-        <v>20211</v>
+        <v>20201</v>
       </c>
       <c r="C5" s="3">
         <v>9.19</v>
@@ -567,11 +567,11 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3">
         <v>9.24</v>
@@ -585,7 +585,7 @@
         <v>6666130</v>
       </c>
       <c r="B6" s="3">
-        <v>20242</v>
+        <v>20201</v>
       </c>
       <c r="C6" s="3">
         <v>0.6</v>
@@ -595,11 +595,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3">
         <v>0.61</v>
